--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -814,7 +814,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>$-77.5B</t>
+          <t>$-78B</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.65M</t>
+          <t>7.70M</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1268,7 +1268,11 @@
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-12.6%</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
@@ -1289,7 +1293,11 @@
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>174.9</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
@@ -1310,7 +1318,11 @@
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>395.1</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
@@ -1331,7 +1343,11 @@
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>136.7</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
@@ -1359,7 +1375,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>143K</t>
+          <t>139K</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1789,7 +1805,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>$12.5B</t>
+          <t>$12B</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -1851,10 +1867,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>210K</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+          <t>217K</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>213K</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>2</t>
@@ -1879,7 +1899,11 @@
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1848K</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
           <t>3</t>
@@ -1904,7 +1928,11 @@
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>224K</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>3</t>
@@ -2002,7 +2030,11 @@
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.265%</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
@@ -2023,7 +2055,11 @@
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.240%</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -2080,7 +2080,11 @@
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.13%</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
@@ -2101,7 +2105,11 @@
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.91%</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -1413,22 +1413,30 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+          <t>Initial Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-1.178M</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>217K</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>213K</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>2</t>
@@ -1438,47 +1446,55 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+          <t>Continuing Jobless ClaimsDEC/28</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7.717M</t>
+          <t>1844K</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1848K</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.323M</t>
+          <t>223.25K</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>224K</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>3</t>
@@ -1493,20 +1509,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-0.142M</t>
+          <t>-1.178M</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1518,20 +1534,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.099M</t>
+          <t>7.717M</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1543,13 +1559,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/03</t>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.406M</t>
+          <t>0.323M</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1568,13 +1584,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/03</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-0.959M</t>
+          <t>-0.142M</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1593,13 +1609,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-0.416M</t>
+          <t>0.099M</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1618,13 +1634,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>6.406M</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1638,18 +1654,18 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4.195%</t>
+          <t>-0.959M</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1663,18 +1679,18 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-116Bcf</t>
+          <t>-0.416M</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1688,18 +1704,18 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4.535%</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1711,16 +1727,20 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMDEC</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>4.195%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1732,16 +1752,20 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYDEC</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-116Bcf</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -1755,64 +1779,64 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Thursday January 09 2025</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.535%</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>Used Car Prices MoMDEC</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeNOV</t>
+          <t>Used Car Prices YoYDEC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>$19.24B</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>$12B</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>$14.0B</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
           <t>3</t>
@@ -1822,86 +1846,62 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Challenger Job CutsDEC</t>
-        </is>
-      </c>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>57.727K</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>65K</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/04</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>211K</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>217K</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsDEC/28</t>
+          <t>Consumer Credit ChangeNOV</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1844K</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>$12B</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1848K</t>
+          <t>$14.0B</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -1913,24 +1913,24 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/04</t>
+          <t>Challenger Job CutsDEC</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>223.25K</t>
+          <t>57.727K</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>224K</t>
+          <t>65K</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>150K</t>
+          <t>160K</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2459,7 +2459,11 @@
           <t>22K</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
           <t>29K</t>
@@ -2490,7 +2494,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>130K</t>
+          <t>134K</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2552,7 +2556,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>74.5</t>
+          <t>73.9</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3794,6 +3794,443 @@
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
     </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Export Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Import Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/11</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>-16.4</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Autos MoMDEC</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsJAN/04</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Export Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Import Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Philly Fed Business ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Philly Fed CAPEX IndexJAN</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Philly Fed EmploymentJAN</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Philly Fed New OrdersJAN</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>-4.3</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Philly Fed Prices PaidJAN</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,11 @@
           <t>S&amp;P Global Composite PMI FinalDEC</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>55.4</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>54.9</t>
@@ -548,7 +552,11 @@
           <t>S&amp;P Global Services PMI FinalDEC</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>56.1</t>
@@ -581,10 +589,14 @@
           <t>Factory Orders MoMNOV</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -614,10 +626,14 @@
           <t>Factory Orders ex TransportationNOV</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -733,62 +749,66 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesDEC</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>16.3M</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tuesday January 07 2025</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$-78B</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>$-70B</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>2</t>
@@ -803,23 +823,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>$-73.8B</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$-78B</t>
-        </is>
-      </c>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$-70B</t>
+          <t>$264B</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -836,19 +852,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>$265.7B</t>
+          <t>$339.6B</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>$264B</t>
+          <t>$334B</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -860,54 +876,58 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Redbook YoYJAN/04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>$339.6B</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$334B</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/04</t>
+          <t>ISM Services PMIDEC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -919,23 +939,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ISM Services PMIDEC</t>
+          <t>JOLTs Job OpeningsNOV</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>7.744M</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>7.70M</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>7.69M</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -952,28 +972,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsNOV</t>
+          <t>ISM Services Business ActivityDEC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.744M</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>7.70M</t>
-        </is>
-      </c>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7.69M</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -985,19 +1001,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityDEC</t>
+          <t>ISM Services EmploymentDEC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1014,19 +1030,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentDEC</t>
+          <t>ISM Services New OrdersDEC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1043,19 +1059,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersDEC</t>
+          <t>ISM Services PricesDEC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1072,19 +1088,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ISM Services PricesDEC</t>
+          <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>3.326M</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>3.31M</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1096,26 +1112,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsNOV</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.326M</t>
+          <t>4.280%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.31M</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>3</t>
@@ -1125,18 +1137,18 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.280%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1148,20 +1160,16 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>LMI Logistics Managers IndexDEC</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1176,17 +1184,25 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexDEC</t>
+          <t>Total Vehicle SalesDEC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>3</t>
@@ -4231,6 +4247,81 @@
         </is>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Business Inventories MoMNOV</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>NAHB Housing Market IndexJAN</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4322,6 +4322,27 @@
         </is>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,7 +684,11 @@
           <t>3-Month Bill Auction</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4.205%</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>4.230%</t>
@@ -709,7 +713,11 @@
           <t>6-Month Bill Auction</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4.110%</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>4.135%</t>
@@ -2840,7 +2848,11 @@
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.205%</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
@@ -2861,7 +2873,11 @@
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.110%</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
@@ -4343,6 +4359,90 @@
         </is>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/16</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/16</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -742,7 +742,11 @@
           <t>3-Year Note Auction</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4.332%</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>4.117%</t>

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4447,6 +4447,40 @@
         </is>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJAN/15</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Monday January 06 2025</t>
+          <t>Tuesday January 07 2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -486,12 +486,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -507,32 +507,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalDEC</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>$-73.8B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>$-78B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>$-70B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -544,32 +540,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalDEC</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>ExportsNOV</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>56.1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>58.5</t>
-        </is>
-      </c>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>$264B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -581,32 +569,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Factory Orders MoMNOV</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+          <t>ImportsNOV</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+          <t>$339.6B</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$334B</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -618,30 +598,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationNOV</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>Redbook YoYJAN/04</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>3</t>
@@ -651,80 +623,92 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
+          <t>ISM Services PMIDEC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$25 million</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
+          <t>JOLTs Job OpeningsNOV</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7.70M</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.69M</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4.110%</t>
-        </is>
-      </c>
+          <t>ISM Services Business ActivityDEC</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.135%</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>3</t>
@@ -734,26 +718,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
+          <t>ISM Services EmploymentDEC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.117%</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>3</t>
@@ -763,143 +747,151 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tuesday January 07 2025</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ISM Services New OrdersDEC</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>ISM Services PricesDEC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>$-73.8B</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$-78B</t>
-        </is>
-      </c>
+          <t>3.326M</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>$-70B</t>
+          <t>3.31M</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>$265.7B</t>
+          <t>4.280%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$264B</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>$339.6B</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$334B</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/04</t>
+          <t>LMI Logistics Managers IndexDEC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -911,152 +903,116 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ISM Services PMIDEC</t>
+          <t>Total Vehicle SalesDEC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>16.5M</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>16.5M</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>16.3M</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsNOV</t>
-        </is>
-      </c>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7.744M</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.70M</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>7.69M</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>-1.442M</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>54.1</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>6.97%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>-12.6%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>54.1</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>3</t>
@@ -1066,26 +1022,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ISM Services PricesDEC</t>
+          <t>MBA Mortgage Market IndexJAN/03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>174.9</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>3</t>
@@ -1095,26 +1047,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsNOV</t>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.326M</t>
+          <t>395.1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.31M</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>3</t>
@@ -1124,18 +1072,18 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>MBA Purchase IndexJAN/03</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.280%</t>
+          <t>136.7</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1149,131 +1097,163 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>ADP Employment ChangeDEC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>139K</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexDEC</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesDEC</t>
+          <t>Initial Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16.5M</t>
+          <t>211K</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>16.5M</t>
+          <t>217K</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>16.3M</t>
+          <t>213K</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Wednesday January 08 2025</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsDEC/28</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1844K</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1848K</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/03</t>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-1.442M</t>
+          <t>223.25K</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>224K</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/03</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>-1.178M</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1287,43 +1267,43 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/03</t>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-12.6%</t>
+          <t>7.717M</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/03</t>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>174.9</t>
+          <t>0.323M</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1337,18 +1317,18 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/03</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>395.1</t>
+          <t>-0.142M</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1362,18 +1342,18 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/03</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>136.7</t>
+          <t>0.099M</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1387,113 +1367,97 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>146K</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>139K</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>-0.959M</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/04</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>211K</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>217K</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
+          <t>-0.416M</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsDEC/28</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1844K</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1848K</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>3</t>
@@ -1503,26 +1467,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/04</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>223.25K</t>
+          <t>4.195%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>224K</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>3</t>
@@ -1532,68 +1492,64 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-1.178M</t>
+          <t>-116Bcf</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7.717M</t>
+          <t>4.535%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+          <t>Used Car Prices MoMDEC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.323M</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1605,20 +1561,16 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+          <t>Used Car Prices YoYDEC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-0.142M</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1632,72 +1584,64 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
-        </is>
-      </c>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.099M</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/03</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>6.406M</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/03</t>
+          <t>Consumer Credit ChangeNOV</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-0.959M</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>$12B</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>3</t>
@@ -1707,22 +1651,26 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+          <t>Challenger Job CutsDEC</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-0.416M</t>
+          <t>57.727K</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>3</t>
@@ -1732,47 +1680,51 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+          <t>Fed Harker Speech</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.041M</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Wholesale Inventories MoMNOV</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4.195%</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>3</t>
@@ -1782,21 +1734,21 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>-116Bcf</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
@@ -1807,18 +1759,18 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.535%</t>
+          <t>4.265%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1830,16 +1782,20 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -1851,16 +1807,20 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYDEC</t>
+          <t>15-Year Mortgage RateJAN/09</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>6.13%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -1874,25 +1834,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Thursday January 09 2025</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/09</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.91%</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>11:10 PM</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1901,81 +1873,53 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeNOV</t>
-        </is>
-      </c>
+          <t>Friday January 10 2025</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>$19.24B</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>$12B</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>$14.0B</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Challenger Job CutsDEC</t>
+          <t>Fed Schmid Speech</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>57.727K</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>65K</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:05 AM</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1991,30 +1935,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMNOV</t>
+          <t>Fed Balance SheetJAN/08</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
           <t>3</t>
@@ -2024,223 +1960,315 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+          <t>Non Farm PayrollsDEC</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>$25 million</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
+          <t>160K</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>200K</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4.265%</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/09</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6.13%</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/09</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6.91%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>62.8%</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>11:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Average Weekly HoursDEC</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Government PayrollsDEC</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>33K</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Fed Schmid Speech</t>
+          <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>22K</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>12:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>134K</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/08</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>7.8%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>3</t>
@@ -2250,28 +2278,28 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>227K</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>160K</t>
+          <t>73.9</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2283,158 +2311,134 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4.30%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMDEC</t>
+          <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
           <t>3</t>
@@ -2444,26 +2448,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>482</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
           <t>3</t>
@@ -2473,30 +2473,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>22K</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>29K</t>
-        </is>
-      </c>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
           <t>3</t>
@@ -2506,121 +2498,77 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>134K</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>185K</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>7.9%</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>73.9</t>
-        </is>
-      </c>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
           <t>3</t>
@@ -2630,26 +2578,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>4.110%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
           <t>3</t>
@@ -2659,26 +2603,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Quarterly Grain Stocks - CornDEC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>1.760B</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
           <t>3</t>
@@ -2688,26 +2628,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.342B</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
           <t>3</t>
@@ -2722,11 +2658,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.98B</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
@@ -2738,127 +2678,147 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>482</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4.205%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr">
         <is>
           <t>3</t>
@@ -2868,22 +2828,26 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4.110%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr">
         <is>
           <t>3</t>
@@ -2893,18 +2857,18 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -2918,18 +2882,18 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -2943,22 +2907,26 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
           <t>3</t>
@@ -2968,116 +2936,96 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/11</t>
+        </is>
+      </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>101.7</t>
-        </is>
-      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
@@ -3089,26 +3037,18 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
           <t>3</t>
@@ -3118,26 +3058,18 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>146.493</t>
-        </is>
-      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>146.4</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
           <t>3</t>
@@ -3147,20 +3079,16 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
@@ -3172,20 +3100,16 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
@@ -3202,101 +3126,137 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYDEC</t>
+        </is>
+      </c>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>CPIDEC</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>315.49</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>313.8</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr">
         <is>
           <t>2</t>
@@ -3306,18 +3266,26 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>CPI s.aDEC</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>316.441</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>317.4</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr">
         <is>
           <t>2</t>
@@ -3327,33 +3295,37 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>NY Empire State Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -3362,19 +3334,19 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
+          <t>EIA Gasoline Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -3383,19 +3355,19 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/10</t>
+          <t>EIA Crude Oil Imports ChangeJAN/10</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -3411,295 +3383,255 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>EIA Distillate Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CPIDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>315.49</t>
-        </is>
-      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>313.8</t>
-        </is>
-      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CPI s.aDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>316.441</t>
-        </is>
-      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>317.4</t>
-        </is>
-      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
+          <t>Thursday January 16 2025</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -3708,61 +3640,73 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>-16.4</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -3778,16 +3722,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
@@ -3799,18 +3747,26 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="G132" t="inlineStr">
         <is>
           <t>3</t>
@@ -3820,15 +3776,23 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
+        </is>
+      </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3838,24 +3802,20 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3867,24 +3827,20 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>18.8</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3896,20 +3852,20 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3921,16 +3877,20 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>-4.3</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3942,20 +3902,20 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-16.4</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3927,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -3979,12 +3939,12 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3996,13 +3956,21 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G140" t="inlineStr">
         <is>
           <t>3</t>
@@ -4012,70 +3980,70 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
@@ -4087,20 +4055,16 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>30.7</t>
-        </is>
-      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
@@ -4112,20 +4076,16 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>18.8</t>
-        </is>
-      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
@@ -4137,20 +4097,16 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
@@ -4162,20 +4118,16 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>-4.3</t>
-        </is>
-      </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
@@ -4187,20 +4139,16 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>31.2</t>
-        </is>
-      </c>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
@@ -4212,270 +4160,32 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMNOV</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJAN</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/16</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/16</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/15</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -961,7 +961,11 @@
           <t>-1.442M</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-0.25M</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -486,51 +486,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>LMI Logistics Managers IndexDEC</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$-73.8B</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$-78B</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$-70B</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>2</t>
@@ -545,19 +541,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$265.7B</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$-78B</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$264B</t>
+          <t>$-70B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -574,19 +574,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$339.6B</t>
+          <t>$265.7B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$334B</t>
+          <t>$264B</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -598,58 +598,54 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/04</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>$339.6B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ISM Services PMIDEC</t>
+          <t>Redbook YoYJAN/04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -661,23 +657,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsNOV</t>
+          <t>ISM Services PMIDEC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.744M</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.70M</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.69M</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -694,24 +690,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityDEC</t>
+          <t>JOLTs Job OpeningsNOV</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>53.7</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.70M</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>7.69M</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -723,19 +723,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentDEC</t>
+          <t>ISM Services Business ActivityDEC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -752,19 +752,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersDEC</t>
+          <t>ISM Services EmploymentDEC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -781,19 +781,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ISM Services PricesDEC</t>
+          <t>ISM Services New OrdersDEC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -810,19 +810,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsNOV</t>
+          <t>ISM Services PricesDEC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.326M</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.31M</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -834,22 +834,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.280%</t>
+          <t>3.326M</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>3</t>
@@ -859,18 +863,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>4.280%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -882,16 +886,20 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexDEC</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1117,7 +1125,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>139K</t>
+          <t>140K</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1171,7 +1179,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>217K</t>
+          <t>218K</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1202,7 +1210,11 @@
           <t>1844K</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1870K</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>1848K</t>

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -761,7 +761,11 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>52</t>
@@ -790,7 +794,11 @@
           <t>53.7</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>54.1</t>
@@ -819,7 +827,11 @@
           <t>58.2</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>57.5</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>58.4</t>
@@ -1272,7 +1284,11 @@
           <t>-1.178M</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-0.25M</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
@@ -1297,7 +1313,11 @@
           <t>7.717M</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.5M</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
@@ -1397,7 +1417,11 @@
           <t>6.406M</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.5M</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
@@ -1650,7 +1674,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>$12B</t>
+          <t>$10.5B</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,10 +544,14 @@
           <t>Balance of TradeNOV</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$-78.2B</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$-73.8B</t>
+          <t>$-73.6B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -577,10 +581,14 @@
           <t>ExportsNOV</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$273.4B</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$265.7B</t>
+          <t>$266.3B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -606,10 +614,14 @@
           <t>ImportsNOV</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$351.6B</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$339.6B</t>
+          <t>$339.9B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -635,7 +647,11 @@
           <t>Redbook YoYJAN/04</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>7.1%</t>
@@ -660,7 +676,11 @@
           <t>ISM Services PMIDEC</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>54.1</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>52.1</t>
@@ -693,10 +713,14 @@
           <t>JOLTs Job OpeningsNOV</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8.098M</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.744M</t>
+          <t>7.839M</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -726,7 +750,11 @@
           <t>ISM Services Business ActivityDEC</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>58.2</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>53.7</t>
@@ -755,7 +783,11 @@
           <t>ISM Services EmploymentDEC</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>51.5</t>
@@ -788,7 +820,11 @@
           <t>ISM Services New OrdersDEC</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>53.7</t>
@@ -821,7 +857,11 @@
           <t>ISM Services PricesDEC</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>58.2</t>
@@ -854,10 +894,14 @@
           <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3.065M</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.326M</t>
+          <t>3.283M</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -2016,7 +2060,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>160K</t>
+          <t>154K</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2239,7 +2283,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2272,7 +2316,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>134K</t>
+          <t>133K</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2334,7 +2378,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>73.9</t>
+          <t>73.8</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2985,7 +3029,11 @@
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
@@ -4231,6 +4279,259 @@
         </is>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Building Permits PrelDEC</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Housing StartsDEC</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.289M</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.5M</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Housing Starts MoMDEC</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Industrial Production MoMDEC</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Capacity UtilizationDEC</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Industrial Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Manufacturing Production MoMDEC</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Manufacturing Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -927,7 +927,11 @@
           <t>42-Day Bill Auction</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4.245%</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>4.280%</t>
@@ -967,69 +971,65 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesDEC</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>16.3M</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Wednesday January 08 2025</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-1.442M</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-0.25M</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/03</t>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-1.442M</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-0.25M</t>
-        </is>
-      </c>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
@@ -1045,20 +1045,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/03</t>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>-12.6%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1070,13 +1070,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/03</t>
+          <t>MBA Mortgage Market IndexJAN/03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-12.6%</t>
+          <t>174.9</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1095,13 +1095,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/03</t>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>174.9</t>
+          <t>395.1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1120,13 +1120,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/03</t>
+          <t>MBA Purchase IndexJAN/03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>395.1</t>
+          <t>136.7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1140,55 +1140,51 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/03</t>
+          <t>ADP Employment ChangeDEC</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>136.7</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeDEC</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>146K</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>2</t>
@@ -1203,13 +1199,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Initial Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>218K</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>213K</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>2</t>
@@ -1224,28 +1232,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/04</t>
+          <t>Continuing Jobless ClaimsDEC/28</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>211K</t>
+          <t>1844K</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>218K</t>
+          <t>1870K</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>213K</t>
+          <t>1848K</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1257,23 +1265,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsDEC/28</t>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1844K</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1870K</t>
-        </is>
-      </c>
+          <t>223.25K</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1848K</t>
+          <t>224K</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1285,29 +1289,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/04</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>223.25K</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>224K</t>
-        </is>
-      </c>
+          <t>-1.178M</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-0.25M</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1319,18 +1323,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-1.178M</t>
+          <t>7.717M</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-0.25M</t>
+          <t>0.5M</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1348,24 +1352,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7.717M</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.5M</t>
-        </is>
-      </c>
+          <t>0.323M</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1377,13 +1377,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.323M</t>
+          <t>-0.142M</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1402,13 +1402,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-0.142M</t>
+          <t>0.099M</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1427,16 +1427,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.099M</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>6.406M</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.5M</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
@@ -1452,20 +1456,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/03</t>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6.406M</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.5M</t>
-        </is>
-      </c>
+          <t>-0.959M</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
@@ -1481,13 +1481,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/03</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-0.959M</t>
+          <t>-0.416M</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1506,13 +1506,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-0.416M</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1526,18 +1526,18 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>4.195%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1551,18 +1551,18 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4.195%</t>
+          <t>-116Bcf</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1576,18 +1576,18 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-116Bcf</t>
+          <t>4.535%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1599,20 +1599,16 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>Used Car Prices MoMDEC</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4.535%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1627,13 +1623,13 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMDEC</t>
+          <t>Used Car Prices YoYDEC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1648,17 +1644,25 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYDEC</t>
+          <t>Total Vehicle SalesDEC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>3</t>

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,7 +956,11 @@
           <t>10-Year Note Auction</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4.68%</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>4.235%</t>
@@ -4536,6 +4540,48 @@
         </is>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4582,6 +4582,94 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Net Long-term TIC FlowsNOV</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentNOV</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsNOV</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_.xlsx
@@ -998,7 +998,11 @@
           <t>API Crude Oil Stock ChangeJAN/03</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-4.022M</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>-1.442M</t>
@@ -3100,7 +3104,11 @@
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>-4.022M</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
